--- a/Carpetas_de_configuracion/Validacion_Portabilidad/Configuracion/Config.xlsx
+++ b/Carpetas_de_configuracion/Validacion_Portabilidad/Configuracion/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Carpetas_de_configuracion\Validacion_Portabilidad\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Validacion_Portabilidad\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE1D77-7A87-4B0C-97E2-48A9B142ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB686A6-1D52-4A5A-A6E6-68D54E388D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -171,9 +171,6 @@
     <t>AW</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>CeldaEstado</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>NuevoEstado</t>
   </si>
   <si>
-    <t>PENDIENTE REDIGITACIÓN</t>
-  </si>
-  <si>
     <t>BX</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
     <t>CorreosNotificacion</t>
   </si>
   <si>
+    <t>monica.lozano@caex.com.co</t>
+  </si>
+  <si>
     <t>CorreosError</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
   </si>
   <si>
     <t>SelectCount</t>
-  </si>
-  <si>
-    <t>"SELECT i.ESTADO, COUNT(I.ESTADO) AS CANTIDAD_ESTADO FROM [Informe$] i GROUP BY i.ESTADO"</t>
   </si>
   <si>
     <t>Saludos equipo
@@ -273,14 +267,38 @@
 Este mensaje fué generado automaticamente, por favor no contestar</t>
   </si>
   <si>
+    <t>SELECT i.ESTADO, COUNT(I.ESTADO) AS CANTIDAD_ESTADO FROM [Informe$] i GROUP BY i.ESTADO</t>
+  </si>
+  <si>
     <t>Saludos equipo
 El asistente virtual Validación Portabilidad finalizo su ejecución con los siguientes registros por estado:
-{1}
+{0}
 Que tenga un buen día
 Este mensaje fué generado automaticamente, por favor no contestar</t>
   </si>
   <si>
-    <t>monica.lozano@caex.com.co; heyli.agredo@caex.com.co; andres.rodriguez@caex.com.co; katherine.loaiza@caex.com.co</t>
+    <t>monica.lozano@caex.com.co; heyli.agredo@caex.com.co; andres.rodriguez@caex.com.co; Katherine.loaiza@caex.com.co</t>
+  </si>
+  <si>
+    <t>PENDIENTE REDIGITACION</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>ENVIADO ABD</t>
+  </si>
+  <si>
+    <t>EnviadoABDNew</t>
+  </si>
+  <si>
+    <t>EnviadoABDOld</t>
+  </si>
+  <si>
+    <t>Enviado al ABD</t>
+  </si>
+  <si>
+    <t>CorreosNotificacionBack</t>
   </si>
 </sst>
 </file>
@@ -772,16 +790,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -928,10 +946,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -986,7 +1004,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
@@ -1005,12 +1023,12 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>48</v>
@@ -1018,18 +1036,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1047,103 +1065,127 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>81</v>
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>81</v>
+      <c r="A42" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>62</v>
+        <v>87</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="150">
-      <c r="A47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="105">
-      <c r="A48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="210">
-      <c r="A49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="210">
+    </row>
+    <row r="50" spans="1:2" ht="150">
       <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="105">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="210">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="210">
+      <c r="A53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
